--- a/SDDI-Metadata.xlsx
+++ b/SDDI-Metadata.xlsx
@@ -1703,7 +1703,7 @@
     <row r="8" ht="15.75" customHeight="1" s="25">
       <c r="E8" s="24" t="inlineStr">
         <is>
-          <t>Digitaler Zwilling</t>
+          <t>Datensatz und Dokumente</t>
         </is>
       </c>
       <c r="G8" s="24" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="9" ht="15.75" customHeight="1" s="25">
       <c r="E9" s="24" t="inlineStr">
         <is>
-          <t>Energie</t>
+          <t>Digitaler Zwilling</t>
         </is>
       </c>
       <c r="G9" s="24" t="inlineStr">
@@ -1742,7 +1742,7 @@
     <row r="10" ht="15.75" customHeight="1" s="25">
       <c r="E10" s="24" t="inlineStr">
         <is>
-          <t>Geoobjekt</t>
+          <t>Energie</t>
         </is>
       </c>
       <c r="G10" s="24" t="inlineStr">
@@ -1759,7 +1759,7 @@
     <row r="11" ht="15.75" customHeight="1" s="25">
       <c r="E11" s="24" t="inlineStr">
         <is>
-          <t>Gerät / Ding</t>
+          <t>Geoobjekt</t>
         </is>
       </c>
       <c r="G11" s="24" t="inlineStr">
@@ -1776,7 +1776,7 @@
     <row r="12" ht="15.75" customHeight="1" s="25">
       <c r="E12" s="24" t="inlineStr">
         <is>
-          <t>Gesundheit</t>
+          <t>Gerät / Ding</t>
         </is>
       </c>
       <c r="G12" s="24" t="inlineStr">
@@ -1793,7 +1793,7 @@
     <row r="13" ht="15.75" customHeight="1" s="25">
       <c r="E13" s="24" t="inlineStr">
         <is>
-          <t>Gewerbe / Handwerk</t>
+          <t>Gesundheit</t>
         </is>
       </c>
       <c r="G13" s="24" t="inlineStr">
@@ -1810,7 +1810,7 @@
     <row r="14" ht="15.75" customHeight="1" s="25">
       <c r="E14" s="24" t="inlineStr">
         <is>
-          <t>Handel</t>
+          <t>Gewerbe / Handwerk</t>
         </is>
       </c>
       <c r="G14" s="24" t="inlineStr">
@@ -1827,7 +1827,7 @@
     <row r="15" ht="15.75" customHeight="1" s="25">
       <c r="E15" s="24" t="inlineStr">
         <is>
-          <t>Hauptkategorien</t>
+          <t>Handel</t>
         </is>
       </c>
       <c r="G15" s="24" t="inlineStr">
@@ -1844,7 +1844,7 @@
     <row r="16" ht="15.75" customHeight="1" s="25">
       <c r="E16" s="24" t="inlineStr">
         <is>
-          <t>Informations-Technologie</t>
+          <t>Hauptkategorien</t>
         </is>
       </c>
       <c r="G16" s="24" t="inlineStr">
@@ -1861,7 +1861,7 @@
     <row r="17" ht="15.75" customHeight="1" s="25">
       <c r="E17" s="24" t="inlineStr">
         <is>
-          <t>Kultur</t>
+          <t>Informations-Technologie</t>
         </is>
       </c>
       <c r="G17" s="24" t="inlineStr">
@@ -1878,7 +1878,7 @@
     <row r="18" ht="15.75" customHeight="1" s="25">
       <c r="E18" s="24" t="inlineStr">
         <is>
-          <t>Landwirtschaft</t>
+          <t>Kultur</t>
         </is>
       </c>
       <c r="G18" s="24" t="inlineStr">
@@ -1895,7 +1895,7 @@
     <row r="19" ht="15.75" customHeight="1" s="25">
       <c r="E19" s="24" t="inlineStr">
         <is>
-          <t>Methode</t>
+          <t>Landwirtschaft</t>
         </is>
       </c>
       <c r="G19" s="24" t="inlineStr">
@@ -1912,7 +1912,7 @@
     <row r="20" ht="15.75" customHeight="1" s="25">
       <c r="E20" s="24" t="inlineStr">
         <is>
-          <t>Mobilität</t>
+          <t>Methode</t>
         </is>
       </c>
       <c r="G20" s="24" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="21" ht="15.75" customHeight="1" s="25">
       <c r="E21" s="24" t="inlineStr">
         <is>
-          <t>Online-Anwendung</t>
+          <t>Mobilität</t>
         </is>
       </c>
       <c r="G21" s="24" t="inlineStr">
@@ -1946,7 +1946,7 @@
     <row r="22" ht="15.75" customHeight="1" s="25">
       <c r="E22" s="24" t="inlineStr">
         <is>
-          <t>Online-Dienst</t>
+          <t>Online-Anwendung</t>
         </is>
       </c>
       <c r="G22" s="24" t="inlineStr">
@@ -1963,7 +1963,7 @@
     <row r="23" ht="15.75" customHeight="1" s="25">
       <c r="E23" s="24" t="inlineStr">
         <is>
-          <t>Projekt</t>
+          <t>Online-Dienst</t>
         </is>
       </c>
       <c r="G23" s="24" t="inlineStr">
@@ -1975,42 +1975,42 @@
     <row r="24" ht="15.75" customHeight="1" s="25">
       <c r="E24" s="24" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Projekt</t>
         </is>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="25">
       <c r="E25" s="24" t="inlineStr">
         <is>
-          <t>Stadtplanung</t>
+          <t>Software</t>
         </is>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="25">
       <c r="E26" s="24" t="inlineStr">
         <is>
-          <t>Themen</t>
+          <t>Stadtplanung</t>
         </is>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="25">
       <c r="E27" s="24" t="inlineStr">
         <is>
-          <t>Tourismus &amp; Freizeit</t>
+          <t>Themen</t>
         </is>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="25">
       <c r="E28" s="24" t="inlineStr">
         <is>
-          <t>Umwelt</t>
+          <t>Tourismus &amp; Freizeit</t>
         </is>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="25">
       <c r="E29" s="24" t="inlineStr">
         <is>
-          <t>Verwaltung</t>
+          <t>Umwelt</t>
         </is>
       </c>
     </row>

--- a/SDDI-Metadata.xlsx
+++ b/SDDI-Metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12200" activeTab="7"/>
+    <workbookView windowWidth="24750" windowHeight="12200" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Data Mapping" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="275">
   <si>
     <t>Hauptkategorien</t>
   </si>
@@ -735,6 +735,9 @@
     <t>Test Maintainer</t>
   </si>
   <si>
+    <t>error test</t>
+  </si>
+  <si>
     <t>Manufacturer</t>
   </si>
   <si>
@@ -874,6 +877,9 @@
   </si>
   <si>
     <t>Example Software 1</t>
+  </si>
+  <si>
+    <t>This is an example software</t>
   </si>
   <si>
     <t>4gb</t>
@@ -908,18 +914,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1059,7 +1065,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1117,12 +1123,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1389,28 +1389,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1461,87 +1461,86 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1933,7 +1932,7 @@
   <sheetPr/>
   <dimension ref="A1:AF33"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB1" sqref="AB1:AB4"/>
     </sheetView>
   </sheetViews>
@@ -1991,7 +1990,7 @@
       <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="7"/>
+      <c r="N1" s="6"/>
       <c r="O1" s="5" t="s">
         <v>11</v>
       </c>
@@ -2001,7 +2000,7 @@
       <c r="Q1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="7"/>
+      <c r="R1" s="6"/>
       <c r="S1" s="5" t="s">
         <v>14</v>
       </c>
@@ -2011,7 +2010,7 @@
       <c r="U1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="7"/>
+      <c r="V1" s="6"/>
       <c r="W1" s="5" t="s">
         <v>17</v>
       </c>
@@ -2021,11 +2020,11 @@
       <c r="Z1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="7"/>
+      <c r="AA1" s="6"/>
       <c r="AB1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="7"/>
+      <c r="AC1" s="6"/>
       <c r="AD1" s="5" t="s">
         <v>21</v>
       </c>
@@ -2040,7 +2039,7 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
       <c r="E2" t="s">
@@ -2070,13 +2069,12 @@
       <c r="O2" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="6"/>
       <c r="S2" t="s">
         <v>36</v>
       </c>
@@ -2112,13 +2110,13 @@
       <c r="C3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" t="s">
         <v>48</v>
       </c>
       <c r="H3" t="s">
@@ -2136,16 +2134,15 @@
       <c r="L3" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" t="s">
         <v>55</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" t="s">
         <v>56</v>
       </c>
-      <c r="R3" s="6"/>
       <c r="S3" t="s">
         <v>57</v>
       </c>
@@ -2196,30 +2193,28 @@
       <c r="K4" t="s">
         <v>71</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" t="s">
         <v>72</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" t="s">
         <v>73</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" t="s">
         <v>74</v>
       </c>
-      <c r="R4" s="6"/>
       <c r="S4" t="s">
         <v>75</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" t="s">
         <v>76</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" t="s">
         <v>77</v>
       </c>
-      <c r="V4" s="6"/>
       <c r="W4" t="s">
         <v>78</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="Y4" t="s">
         <v>79</v>
       </c>
       <c r="Z4" t="s">
@@ -2257,16 +2252,15 @@
       <c r="K5" t="s">
         <v>88</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" t="s">
         <v>89</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" t="s">
         <v>90</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" t="s">
         <v>91</v>
       </c>
-      <c r="R5" s="6"/>
       <c r="T5" t="s">
         <v>92</v>
       </c>
@@ -2504,10 +2498,9 @@
       <c r="H14" t="s">
         <v>160</v>
       </c>
-      <c r="T14" s="6" t="s">
+      <c r="T14" t="s">
         <v>78</v>
       </c>
-      <c r="V14" s="6"/>
       <c r="AD14" t="s">
         <v>161</v>
       </c>
@@ -2640,15 +2633,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="U1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="AA2" sqref="AA2:AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="21.0833333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
@@ -2801,7 +2794,7 @@
       <c r="I2" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -2813,7 +2806,7 @@
       <c r="M2" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -2846,10 +2839,9 @@
       <c r="X2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="4"/>
       <c r="AA2" s="2" t="s">
         <v>218</v>
       </c>
@@ -2894,7 +2886,7 @@
       <c r="I3" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>48</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -2943,6 +2935,86 @@
         <v>32</v>
       </c>
       <c r="AE3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1" spans="1:31">
+      <c r="A4" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE4" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2994,6 +3066,9 @@
       <formula1>Privacy_Policy</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H4" r:id="rId1" display="max-mustermann@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
@@ -3117,16 +3192,16 @@
         <v>8</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>14</v>
@@ -3135,16 +3210,16 @@
         <v>15</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>10</v>
@@ -3167,7 +3242,7 @@
     </row>
     <row r="2" ht="44" customHeight="1" spans="1:38">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>209</v>
@@ -3218,7 +3293,7 @@
         <v>216</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>29</v>
@@ -3236,7 +3311,7 @@
         <v>37</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>38</v>
@@ -3262,7 +3337,7 @@
     </row>
     <row r="3" ht="46.5" customHeight="1" spans="1:38">
       <c r="A3" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>209</v>
@@ -3313,7 +3388,7 @@
         <v>216</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>53</v>
@@ -3341,8 +3416,8 @@
       </c>
     </row>
     <row r="4" spans="1:38">
-      <c r="A4" s="4" t="s">
-        <v>235</v>
+      <c r="A4" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>209</v>
@@ -3366,7 +3441,7 @@
         <v>212</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>27</v>
@@ -3384,7 +3459,7 @@
         <v>25</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>29</v>
@@ -3561,7 +3636,7 @@
         <v>8</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>203</v>
@@ -3581,7 +3656,7 @@
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>209</v>
@@ -3632,7 +3707,7 @@
         <v>216</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>29</v>
@@ -3661,7 +3736,7 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>209</v>
@@ -3712,7 +3787,7 @@
         <v>216</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>53</v>
@@ -3863,16 +3938,16 @@
         <v>8</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>10</v>
@@ -3895,7 +3970,7 @@
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>209</v>
@@ -3946,7 +4021,7 @@
         <v>216</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>29</v>
@@ -3973,7 +4048,7 @@
         <v>97</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>220</v>
@@ -3984,7 +4059,7 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>209</v>
@@ -4035,7 +4110,7 @@
         <v>216</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>53</v>
@@ -4057,8 +4132,8 @@
       </c>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="4" t="s">
-        <v>247</v>
+      <c r="A4" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>209</v>
@@ -4109,7 +4184,7 @@
         <v>216</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>53</v>
@@ -4267,13 +4342,13 @@
         <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>10</v>
@@ -4296,7 +4371,7 @@
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>209</v>
@@ -4347,7 +4422,7 @@
         <v>216</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>29</v>
@@ -4365,7 +4440,7 @@
         <v>36</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>32</v>
@@ -4377,7 +4452,7 @@
         <v>97</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>220</v>
@@ -4388,7 +4463,7 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>209</v>
@@ -4439,7 +4514,7 @@
         <v>216</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>53</v>
@@ -4512,8 +4587,8 @@
   <sheetPr/>
   <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -4596,7 +4671,7 @@
         <v>18</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>19</v>
@@ -4625,7 +4700,7 @@
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>209</v>
@@ -4676,7 +4751,7 @@
         <v>216</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>29</v>
@@ -4694,9 +4769,9 @@
         <v>36</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y2" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="Z2" s="2" t="s">
@@ -4709,7 +4784,7 @@
         <v>97</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>220</v>
@@ -4720,7 +4795,7 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>209</v>
@@ -4771,7 +4846,7 @@
         <v>216</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>53</v>
@@ -4802,8 +4877,8 @@
       </c>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="4" t="s">
-        <v>258</v>
+      <c r="A4" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>209</v>
@@ -4854,7 +4929,7 @@
         <v>216</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>53</v>
@@ -4939,7 +5014,7 @@
   <sheetPr/>
   <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
@@ -5023,7 +5098,7 @@
         <v>8</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>10</v>
@@ -5046,7 +5121,7 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>209</v>
@@ -5097,7 +5172,7 @@
         <v>216</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>29</v>
@@ -5121,7 +5196,7 @@
         <v>97</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>220</v>
@@ -5132,7 +5207,7 @@
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>209</v>
@@ -5183,7 +5258,7 @@
         <v>216</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>53</v>
@@ -5206,7 +5281,7 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>209</v>
@@ -5255,7 +5330,7 @@
         <v>216</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>53</v>
@@ -5278,41 +5353,41 @@
     </row>
   </sheetData>
   <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D1:D3 D5:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>'Data Mapping'!$H:$H</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4 J1:J3 J5:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
       <formula1>'Data Mapping'!$F:$F</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4 K1:K3 K5:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
       <formula1>'Data Mapping'!$E:$E</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4 L1:L3 L5:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
       <formula1>'Data Mapping'!$A$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4 M1:M3 M5:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
       <formula1>'Data Mapping'!$C:$C</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4 N1:N3 N5:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N$1:N$1048576">
       <formula1>'Data Mapping'!$D:$D</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4 S1:S3 S5:S1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S$1:S$1048576">
       <formula1>'Data Mapping'!$L:$L</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T4 T1:T3 T5:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T$1:T$1048576">
       <formula1>'Data Mapping'!$J:$J</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4 U1:U3 U5:U1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U$1:U$1048576">
       <formula1>'Data Mapping'!$K:$K</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V4 V1:V3 V5:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V$1:V$1048576">
       <formula1>'Data Mapping'!$AD:$AD</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W4:X4 W1:X3 W5:X1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC$1:AC$1048576">
+      <formula1>'Data Mapping'!$I:$I</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W$1:X$1048576">
       <formula1>Privacy_Policy</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC4 AC1:AC3 AC5:AC1048576">
-      <formula1>'Data Mapping'!$I:$I</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5325,22 +5400,28 @@
   <sheetPr/>
   <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
       <selection activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="3" width="9" style="2"/>
+    <col min="1" max="1" width="30.3333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.4166666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="29.0833333333333" style="2" customWidth="1"/>
     <col min="5" max="9" width="9" style="2"/>
     <col min="10" max="10" width="15.1666666666667" style="2" customWidth="1"/>
     <col min="11" max="11" width="25.3333333333333" style="2" customWidth="1"/>
-    <col min="12" max="22" width="9" style="2"/>
+    <col min="12" max="18" width="9" style="2"/>
+    <col min="19" max="19" width="18.5" style="2" customWidth="1"/>
+    <col min="20" max="22" width="9" style="2"/>
     <col min="23" max="23" width="16.5833333333333" style="2" customWidth="1"/>
     <col min="24" max="28" width="9" style="2"/>
-    <col min="29" max="30" width="26.3333333333333" style="2" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="2"/>
+    <col min="29" max="29" width="26.3333333333333" style="2" customWidth="1"/>
+    <col min="30" max="30" width="7.25" style="2" customWidth="1"/>
+    <col min="31" max="31" width="19.8333333333333" style="2" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="26" customHeight="1" spans="1:35">
@@ -5411,22 +5492,22 @@
         <v>22</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>10</v>
@@ -5449,7 +5530,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>209</v>
@@ -5482,7 +5563,7 @@
         <v>111</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>137</v>
@@ -5500,7 +5581,7 @@
         <v>216</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>29</v>
@@ -5515,10 +5596,10 @@
         <v>39</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>32</v>
@@ -5530,7 +5611,7 @@
         <v>97</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>220</v>
@@ -5541,16 +5622,16 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>209</v>
+        <v>272</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>210</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>222</v>
@@ -5571,10 +5652,10 @@
         <v>48</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>137</v>
@@ -5592,7 +5673,7 @@
         <v>216</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>53</v>
@@ -5607,13 +5688,22 @@
         <v>39</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="AI3" s="2" t="s">
         <v>29</v>

--- a/SDDI-Metadata.xlsx
+++ b/SDDI-Metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12200" activeTab="8"/>
+    <workbookView windowWidth="24750" windowHeight="12200" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Data Mapping" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="276">
   <si>
     <t>Hauptkategorien</t>
   </si>
@@ -714,9 +714,6 @@
     <t>2025-07-20</t>
   </si>
   <si>
-    <t>München</t>
-  </si>
-  <si>
     <t>https://dz.forchheim.de/#/</t>
   </si>
   <si>
@@ -738,6 +735,9 @@
     <t>error test</t>
   </si>
   <si>
+    <t>Example Dataset new test</t>
+  </si>
+  <si>
     <t>Manufacturer</t>
   </si>
   <si>
@@ -826,6 +826,9 @@
   </si>
   <si>
     <t>Example Online Application 1</t>
+  </si>
+  <si>
+    <t>Example Online Application 727</t>
   </si>
   <si>
     <t>API Endpoint</t>
@@ -2625,7 +2628,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="H4:I19 H1 A5:A6 H2:I2 I3 K18:K19" numberStoredAsText="1"/>
+    <ignoredError sqref="K18:K19 I3 H2:I2 A5:A6 H1 H4:I19" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2633,17 +2636,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AA2" sqref="AA2:AC2"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="21.0833333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="51.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="31.25" style="2" customWidth="1"/>
@@ -2818,9 +2821,6 @@
       <c r="Q2" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="S2" s="2" t="s">
         <v>29</v>
       </c>
@@ -2843,16 +2843,16 @@
         <v>32</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AC2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD2" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>29</v>
@@ -2860,7 +2860,7 @@
     </row>
     <row r="3" ht="60" customHeight="1" spans="1:31">
       <c r="A3" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>209</v>
@@ -2872,13 +2872,13 @@
         <v>132</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>212</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>212</v>
@@ -2910,9 +2910,6 @@
       <c r="Q3" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="S3" s="2" t="s">
         <v>53</v>
       </c>
@@ -2940,7 +2937,7 @@
     </row>
     <row r="4" ht="60" customHeight="1" spans="1:31">
       <c r="A4" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>209</v>
@@ -2952,13 +2949,13 @@
         <v>132</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>212</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>212</v>
@@ -2990,9 +2987,6 @@
       <c r="Q4" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="S4" s="2" t="s">
         <v>53</v>
       </c>
@@ -3015,6 +3009,83 @@
         <v>32</v>
       </c>
       <c r="AE4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" ht="60" customHeight="1" spans="1:31">
+      <c r="A5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE5" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3072,7 +3143,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="AC1:AD1 AA1 E1:I3 O1:R3 AA2:AD3 A1:C3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C3 AA2:AD3 O2:Q3 O1:R1 E1:I3 AA1 AC1:AD1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3320,16 +3391,16 @@
         <v>32</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AI2" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AJ2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>29</v>
@@ -3349,13 +3420,13 @@
         <v>132</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>212</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>212</v>
@@ -3429,13 +3500,13 @@
         <v>68</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>212</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>212</v>
@@ -3719,16 +3790,16 @@
         <v>71</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>97</v>
       </c>
       <c r="Z2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>184</v>
@@ -3748,13 +3819,13 @@
         <v>132</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>212</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>212</v>
@@ -4042,7 +4113,7 @@
         <v>32</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>97</v>
@@ -4051,7 +4122,7 @@
         <v>246</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>6</v>
@@ -4071,13 +4142,13 @@
         <v>132</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>212</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>212</v>
@@ -4145,13 +4216,13 @@
         <v>150</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>212</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>212</v>
@@ -4255,13 +4326,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="16.1666666666667" style="2" customWidth="1"/>
     <col min="2" max="3" width="9" style="2"/>
@@ -4446,7 +4517,7 @@
         <v>32</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>97</v>
@@ -4455,7 +4526,7 @@
         <v>246</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>184</v>
@@ -4475,13 +4546,13 @@
         <v>132</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>212</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>212</v>
@@ -4538,43 +4609,120 @@
         <v>184</v>
       </c>
     </row>
+    <row r="4" spans="1:32">
+      <c r="A4" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D1:D3 D5:D1048576">
       <formula1>'Data Mapping'!$H:$H</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4 J1:J3 J5:J1048576">
       <formula1>'Data Mapping'!$F:$F</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4 K1:K3 K5:K1048576">
       <formula1>'Data Mapping'!$E:$E</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4 L1:L3 L5:L1048576">
       <formula1>'Data Mapping'!$A$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4 M1:M3 M5:M1048576">
       <formula1>'Data Mapping'!$C:$C</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N$1:N$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4 N1:N3 N5:N1048576">
       <formula1>'Data Mapping'!$D:$D</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S$1:S$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4 S1:S3 S5:S1048576">
       <formula1>'Data Mapping'!$L:$L</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T$1:T$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T4 T1:T3 T5:T1048576">
       <formula1>'Data Mapping'!$J:$J</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U$1:U$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4 U1:U3 U5:U1048576">
       <formula1>'Data Mapping'!$K:$K</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V$1:V$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V4 V1:V3 V5:V1048576">
       <formula1>'Data Mapping'!$W:$W</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF$1:AF$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z4:AA4 Z1:AA3 Z5:AA1048576">
+      <formula1>Privacy_Policy</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF4 AF1:AF3 AF5:AF1048576">
       <formula1>'Data Mapping'!$I:$I</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z$1:AA$1048576">
-      <formula1>Privacy_Policy</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4671,7 +4819,7 @@
         <v>18</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>19</v>
@@ -4700,7 +4848,7 @@
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>209</v>
@@ -4769,7 +4917,7 @@
         <v>36</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>42</v>
@@ -4778,7 +4926,7 @@
         <v>32</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>97</v>
@@ -4787,7 +4935,7 @@
         <v>246</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>29</v>
@@ -4795,7 +4943,7 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>209</v>
@@ -4807,13 +4955,13 @@
         <v>132</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>212</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>212</v>
@@ -4878,7 +5026,7 @@
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>209</v>
@@ -4890,13 +5038,13 @@
         <v>132</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>212</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>212</v>
@@ -5098,7 +5246,7 @@
         <v>8</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>10</v>
@@ -5121,7 +5269,7 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>209</v>
@@ -5190,7 +5338,7 @@
         <v>32</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>97</v>
@@ -5199,7 +5347,7 @@
         <v>246</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>29</v>
@@ -5207,7 +5355,7 @@
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>209</v>
@@ -5219,13 +5367,13 @@
         <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>212</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>212</v>
@@ -5281,7 +5429,7 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>209</v>
@@ -5293,13 +5441,13 @@
         <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>212</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>212</v>
@@ -5400,7 +5548,7 @@
   <sheetPr/>
   <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
@@ -5492,19 +5640,19 @@
         <v>22</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>250</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>251</v>
@@ -5530,7 +5678,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>209</v>
@@ -5596,16 +5744,16 @@
         <v>39</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>97</v>
@@ -5614,7 +5762,7 @@
         <v>246</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AI2" s="2" t="s">
         <v>29</v>
@@ -5622,10 +5770,10 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>210</v>
@@ -5634,13 +5782,13 @@
         <v>132</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>212</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>212</v>
@@ -5688,22 +5836,22 @@
         <v>39</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF3" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AI3" s="2" t="s">
         <v>29</v>

--- a/SDDI-Metadata.xlsx
+++ b/SDDI-Metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12200" activeTab="5"/>
+    <workbookView windowWidth="24750" windowHeight="12200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data Mapping" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="279">
   <si>
     <t>Hauptkategorien</t>
   </si>
@@ -738,6 +738,12 @@
     <t>Example Dataset new test</t>
   </si>
   <si>
+    <t xml:space="preserve">Example Dataset84 </t>
+  </si>
+  <si>
+    <t>This is today dataset</t>
+  </si>
+  <si>
     <t>Manufacturer</t>
   </si>
   <si>
@@ -778,6 +784,9 @@
   </si>
   <si>
     <t>1.1</t>
+  </si>
+  <si>
+    <t>Example Device 84</t>
   </si>
   <si>
     <t>Simulation Model</t>
@@ -2636,15 +2645,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="51.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
@@ -3089,6 +3098,83 @@
         <v>29</v>
       </c>
     </row>
+    <row r="6" ht="60" customHeight="1" spans="1:31">
+      <c r="A6" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="15">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1 L3:L1048576">
@@ -3151,15 +3237,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL4"/>
+  <dimension ref="A1:AL5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="$A4:$XFD4"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="17.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="22" style="2" customWidth="1"/>
@@ -3263,16 +3349,16 @@
         <v>8</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>14</v>
@@ -3281,16 +3367,16 @@
         <v>15</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>10</v>
@@ -3313,7 +3399,7 @@
     </row>
     <row r="2" ht="44" customHeight="1" spans="1:38">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>209</v>
@@ -3364,7 +3450,7 @@
         <v>216</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>29</v>
@@ -3382,7 +3468,7 @@
         <v>37</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>38</v>
@@ -3408,7 +3494,7 @@
     </row>
     <row r="3" ht="46.5" customHeight="1" spans="1:38">
       <c r="A3" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>209</v>
@@ -3459,7 +3545,7 @@
         <v>216</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>53</v>
@@ -3488,7 +3574,7 @@
     </row>
     <row r="4" spans="1:38">
       <c r="A4" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>209</v>
@@ -3512,7 +3598,7 @@
         <v>212</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>27</v>
@@ -3530,7 +3616,7 @@
         <v>25</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>29</v>
@@ -3557,49 +3643,120 @@
         <v>29</v>
       </c>
     </row>
+    <row r="5" spans="1:38">
+      <c r="A5" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D1:D4 D6:D1048576">
       <formula1>'Data Mapping'!$H:$H</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5 J1:J4 J6:J1048576">
       <formula1>'Data Mapping'!$F:$F</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5 K1:K4 K6:K1048576">
       <formula1>'Data Mapping'!$E:$E</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5 L1:L4 L6:L1048576">
       <formula1>'Data Mapping'!$A$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5 M1:M4 M6:M1048576">
       <formula1>'Data Mapping'!$C:$C</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N$1:N$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5 N1:N4 N6:N1048576">
       <formula1>'Data Mapping'!$D:$D</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S$1:S$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5 S1:S4 S6:S1048576">
       <formula1>'Data Mapping'!$L:$L</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T$1:T$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T5 T1:T4 T6:T1048576">
       <formula1>'Data Mapping'!$J:$J</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U$1:U$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5 U1:U4 U6:U1048576">
       <formula1>'Data Mapping'!$K:$K</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z$1:Z$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z5 Z1:Z4 Z6:Z1048576">
       <formula1>'Data Mapping'!$S:$S</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA$1:AA$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA5 AA1:AA4 AA6:AA1048576">
       <formula1>'Data Mapping'!$T:$T</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD$1:AD$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD5 AD1:AD4 AD6:AD1048576">
       <formula1>'Data Mapping'!$U:$U</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL$1:AL$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF5:AG5 AF1:AG4 AF6:AG1048576">
+      <formula1>Privacy_Policy</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL5 AL1:AL4 AL6:AL1048576">
       <formula1>'Data Mapping'!$I:$I</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF$1:AG$1048576">
-      <formula1>Privacy_Policy</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3707,7 +3864,7 @@
         <v>8</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>203</v>
@@ -3727,7 +3884,7 @@
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>209</v>
@@ -3778,7 +3935,7 @@
         <v>216</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>29</v>
@@ -3807,7 +3964,7 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>209</v>
@@ -3858,7 +4015,7 @@
         <v>216</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>53</v>
@@ -4009,16 +4166,16 @@
         <v>8</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>10</v>
@@ -4041,7 +4198,7 @@
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>209</v>
@@ -4092,7 +4249,7 @@
         <v>216</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>29</v>
@@ -4119,7 +4276,7 @@
         <v>97</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>219</v>
@@ -4130,7 +4287,7 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>209</v>
@@ -4181,7 +4338,7 @@
         <v>216</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>53</v>
@@ -4204,7 +4361,7 @@
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>209</v>
@@ -4255,7 +4412,7 @@
         <v>216</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>53</v>
@@ -4328,7 +4485,7 @@
   <sheetPr/>
   <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -4413,13 +4570,13 @@
         <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>10</v>
@@ -4442,7 +4599,7 @@
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>209</v>
@@ -4493,7 +4650,7 @@
         <v>216</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>29</v>
@@ -4511,7 +4668,7 @@
         <v>36</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>32</v>
@@ -4523,7 +4680,7 @@
         <v>97</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>219</v>
@@ -4534,7 +4691,7 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>209</v>
@@ -4585,7 +4742,7 @@
         <v>216</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>53</v>
@@ -4611,7 +4768,7 @@
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>209</v>
@@ -4662,7 +4819,7 @@
         <v>216</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>53</v>
@@ -4688,41 +4845,41 @@
     </row>
   </sheetData>
   <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D1:D3 D5:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>'Data Mapping'!$H:$H</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4 J1:J3 J5:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
       <formula1>'Data Mapping'!$F:$F</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4 K1:K3 K5:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
       <formula1>'Data Mapping'!$E:$E</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4 L1:L3 L5:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
       <formula1>'Data Mapping'!$A$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4 M1:M3 M5:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
       <formula1>'Data Mapping'!$C:$C</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4 N1:N3 N5:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N$1:N$1048576">
       <formula1>'Data Mapping'!$D:$D</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4 S1:S3 S5:S1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S$1:S$1048576">
       <formula1>'Data Mapping'!$L:$L</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T4 T1:T3 T5:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T$1:T$1048576">
       <formula1>'Data Mapping'!$J:$J</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4 U1:U3 U5:U1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U$1:U$1048576">
       <formula1>'Data Mapping'!$K:$K</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V4 V1:V3 V5:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V$1:V$1048576">
       <formula1>'Data Mapping'!$W:$W</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z4:AA4 Z1:AA3 Z5:AA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF$1:AF$1048576">
+      <formula1>'Data Mapping'!$I:$I</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z$1:AA$1048576">
       <formula1>Privacy_Policy</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF4 AF1:AF3 AF5:AF1048576">
-      <formula1>'Data Mapping'!$I:$I</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4819,7 +4976,7 @@
         <v>18</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>19</v>
@@ -4848,7 +5005,7 @@
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>209</v>
@@ -4899,7 +5056,7 @@
         <v>216</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>29</v>
@@ -4917,7 +5074,7 @@
         <v>36</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>42</v>
@@ -4932,7 +5089,7 @@
         <v>97</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>219</v>
@@ -4943,7 +5100,7 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>209</v>
@@ -4994,7 +5151,7 @@
         <v>216</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>53</v>
@@ -5026,7 +5183,7 @@
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>209</v>
@@ -5077,7 +5234,7 @@
         <v>216</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>53</v>
@@ -5246,7 +5403,7 @@
         <v>8</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>10</v>
@@ -5269,7 +5426,7 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>209</v>
@@ -5320,7 +5477,7 @@
         <v>216</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>29</v>
@@ -5344,7 +5501,7 @@
         <v>97</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>219</v>
@@ -5355,7 +5512,7 @@
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>209</v>
@@ -5406,7 +5563,7 @@
         <v>216</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>53</v>
@@ -5429,7 +5586,7 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>209</v>
@@ -5478,7 +5635,7 @@
         <v>216</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>53</v>
@@ -5640,22 +5797,22 @@
         <v>22</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>10</v>
@@ -5678,7 +5835,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>209</v>
@@ -5729,7 +5886,7 @@
         <v>216</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>29</v>
@@ -5744,10 +5901,10 @@
         <v>39</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>32</v>
@@ -5759,7 +5916,7 @@
         <v>97</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>219</v>
@@ -5770,10 +5927,10 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>210</v>
@@ -5821,7 +5978,7 @@
         <v>216</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>53</v>
@@ -5836,10 +5993,10 @@
         <v>39</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>32</v>

--- a/SDDI-Metadata.xlsx
+++ b/SDDI-Metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12200" activeTab="2"/>
+    <workbookView windowWidth="24750" windowHeight="12200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data Mapping" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="282">
   <si>
     <t>Hauptkategorien</t>
   </si>
@@ -741,6 +741,9 @@
     <t xml:space="preserve">Example Dataset84 </t>
   </si>
   <si>
+    <t>Example Dataset84 84</t>
+  </si>
+  <si>
     <t>This is today dataset</t>
   </si>
   <si>
@@ -840,6 +843,9 @@
     <t>Example Online Application 727</t>
   </si>
   <si>
+    <t>Example Online Application 84</t>
+  </si>
+  <si>
     <t>API Endpoint</t>
   </si>
   <si>
@@ -898,6 +904,9 @@
   </si>
   <si>
     <t>Linux</t>
+  </si>
+  <si>
+    <t>Example Software new test 84</t>
   </si>
 </sst>
 </file>
@@ -1941,7 +1950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2644,16 +2653,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AE6"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="$A6:$XFD6"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="51.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
@@ -3102,8 +3111,8 @@
       <c r="A6" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>226</v>
+      <c r="B6" s="2">
+        <v>84848</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>210</v>
@@ -3175,52 +3184,129 @@
         <v>29</v>
       </c>
     </row>
+    <row r="7" ht="60" customHeight="1" spans="1:31">
+      <c r="A7" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="15">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1 L3:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1 L7 L3:L6 L8:L1048576">
       <formula1>Hauptkategorien</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
       <formula1>'Data Mapping'!$A$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 D1:D6 D8:D1048576">
       <formula1>Lizenzen</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7 J1:J6 J8:J1048576">
       <formula1>Role</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7 K1:K6 K8:K1048576">
       <formula1>Organisationen</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7 M1:M6 M8:M1048576">
       <formula1>Themen</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N$1:N$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7 N1:N6 N8:N1048576">
       <formula1>Language</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S$1:S$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S7 S1:S6 S8:S1048576">
       <formula1>Sichtbarkeit</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T$1:T$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7 T1:T6 T8:T1048576">
       <formula1>Life_Cycle_Phase</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U$1:U$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U7 U1:U6 U8:U1048576">
       <formula1>HOAI_Service_Phase</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V$1:V$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V7 V1:V6 V8:V1048576">
       <formula1>Data_Status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W$1:W$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W7 W1:W6 W8:W1048576">
       <formula1>'Data Mapping'!$P:$P</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X$1:X$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X7 X1:X6 X8:X1048576">
       <formula1>'Data Mapping'!$Q:$Q</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE$1:AE$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y7:Z7 Y1:Z6 Y8:Z1048576">
+      <formula1>Privacy_Policy</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE7 AE1:AE6 AE8:AE1048576">
       <formula1>Zugriffsrechte</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y$1:Z$1048576">
-      <formula1>Privacy_Policy</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -3236,10 +3322,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AL5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A5" sqref="$A5:$XFD5"/>
@@ -3349,16 +3435,16 @@
         <v>8</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>14</v>
@@ -3367,16 +3453,16 @@
         <v>15</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>10</v>
@@ -3399,7 +3485,7 @@
     </row>
     <row r="2" ht="44" customHeight="1" spans="1:38">
       <c r="A2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>209</v>
@@ -3450,7 +3536,7 @@
         <v>216</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>29</v>
@@ -3468,7 +3554,7 @@
         <v>37</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>38</v>
@@ -3494,7 +3580,7 @@
     </row>
     <row r="3" ht="46.5" customHeight="1" spans="1:38">
       <c r="A3" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>209</v>
@@ -3545,7 +3631,7 @@
         <v>216</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>53</v>
@@ -3574,7 +3660,7 @@
     </row>
     <row r="4" spans="1:38">
       <c r="A4" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>209</v>
@@ -3598,7 +3684,7 @@
         <v>212</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>27</v>
@@ -3616,7 +3702,7 @@
         <v>25</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>29</v>
@@ -3645,7 +3731,7 @@
     </row>
     <row r="5" spans="1:38">
       <c r="A5" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>209</v>
@@ -3669,7 +3755,7 @@
         <v>212</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>27</v>
@@ -3687,7 +3773,7 @@
         <v>25</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>29</v>
@@ -3716,47 +3802,47 @@
     </row>
   </sheetData>
   <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D1:D4 D6:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>'Data Mapping'!$H:$H</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5 J1:J4 J6:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
       <formula1>'Data Mapping'!$F:$F</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5 K1:K4 K6:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
       <formula1>'Data Mapping'!$E:$E</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5 L1:L4 L6:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
       <formula1>'Data Mapping'!$A$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5 M1:M4 M6:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
       <formula1>'Data Mapping'!$C:$C</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5 N1:N4 N6:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N$1:N$1048576">
       <formula1>'Data Mapping'!$D:$D</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5 S1:S4 S6:S1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S$1:S$1048576">
       <formula1>'Data Mapping'!$L:$L</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T5 T1:T4 T6:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T$1:T$1048576">
       <formula1>'Data Mapping'!$J:$J</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5 U1:U4 U6:U1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U$1:U$1048576">
       <formula1>'Data Mapping'!$K:$K</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z5 Z1:Z4 Z6:Z1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z$1:Z$1048576">
       <formula1>'Data Mapping'!$S:$S</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA5 AA1:AA4 AA6:AA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA$1:AA$1048576">
       <formula1>'Data Mapping'!$T:$T</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD5 AD1:AD4 AD6:AD1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD$1:AD$1048576">
       <formula1>'Data Mapping'!$U:$U</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF5:AG5 AF1:AG4 AF6:AG1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL$1:AL$1048576">
+      <formula1>'Data Mapping'!$I:$I</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF$1:AG$1048576">
       <formula1>Privacy_Policy</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL5 AL1:AL4 AL6:AL1048576">
-      <formula1>'Data Mapping'!$I:$I</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3766,13 +3852,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AB3"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L$1:L$1048576"/>
+      <selection pane="bottomLeft" activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -3787,19 +3873,19 @@
     <col min="12" max="12" width="24.1666666666667" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
     <col min="14" max="17" width="9" style="2"/>
-    <col min="18" max="18" width="53.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.1666666666667" style="2" customWidth="1"/>
     <col min="19" max="19" width="17.3333333333333" style="2" customWidth="1"/>
     <col min="20" max="20" width="9" style="2"/>
     <col min="21" max="22" width="18.4166666666667" style="2" customWidth="1"/>
-    <col min="23" max="23" width="14.4166666666667" style="2" customWidth="1"/>
-    <col min="24" max="25" width="9" style="2"/>
-    <col min="26" max="26" width="18.75" style="2" customWidth="1"/>
-    <col min="27" max="27" width="9" style="2"/>
-    <col min="28" max="28" width="13" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="2"/>
+    <col min="23" max="24" width="14.4166666666667" style="2" customWidth="1"/>
+    <col min="25" max="26" width="9" style="2"/>
+    <col min="27" max="27" width="18.75" style="2" customWidth="1"/>
+    <col min="28" max="28" width="9" style="2"/>
+    <col min="29" max="29" width="13" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:28">
+    <row r="1" s="1" customFormat="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>187</v>
       </c>
@@ -3864,27 +3950,30 @@
         <v>8</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="X1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:29">
       <c r="A2" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>209</v>
@@ -3935,7 +4024,7 @@
         <v>216</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>29</v>
@@ -3946,25 +4035,28 @@
       <c r="U2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="W2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:29">
       <c r="A3" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>209</v>
@@ -4015,7 +4107,7 @@
         <v>216</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>53</v>
@@ -4026,12 +4118,15 @@
       <c r="U3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="W3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC3" s="2" t="s">
         <v>184</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="10">
+  <dataValidations count="11">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>'Data Mapping'!$H:$H</formula1>
     </dataValidation>
@@ -4059,7 +4154,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U$1:U$1048576">
       <formula1>'Data Mapping'!$K:$K</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB$1:AB$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W4">
+      <formula1>Privacy_Policy</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC$1:AC$1048576">
       <formula1>'Data Mapping'!$I:$I</formula1>
     </dataValidation>
   </dataValidations>
@@ -4070,13 +4168,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Z6" sqref="Z6"/>
+      <selection pane="bottomLeft" activeCell="Z1" sqref="Z1:Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -4166,16 +4264,16 @@
         <v>8</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>10</v>
@@ -4198,7 +4296,7 @@
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>209</v>
@@ -4249,7 +4347,7 @@
         <v>216</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>29</v>
@@ -4276,7 +4374,7 @@
         <v>97</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>219</v>
@@ -4287,7 +4385,7 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>209</v>
@@ -4338,7 +4436,7 @@
         <v>216</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>53</v>
@@ -4361,7 +4459,7 @@
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>209</v>
@@ -4412,7 +4510,7 @@
         <v>216</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>53</v>
@@ -4482,14 +4580,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AF4"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="16.1666666666667" style="2" customWidth="1"/>
     <col min="2" max="3" width="9" style="2"/>
@@ -4570,13 +4668,13 @@
         <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>10</v>
@@ -4599,7 +4697,7 @@
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>209</v>
@@ -4650,7 +4748,7 @@
         <v>216</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>29</v>
@@ -4668,7 +4766,7 @@
         <v>36</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>32</v>
@@ -4680,7 +4778,7 @@
         <v>97</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>219</v>
@@ -4691,7 +4789,7 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>209</v>
@@ -4742,7 +4840,7 @@
         <v>216</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>53</v>
@@ -4768,7 +4866,7 @@
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>209</v>
@@ -4819,7 +4917,7 @@
         <v>216</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>53</v>
@@ -4840,6 +4938,83 @@
         <v>32</v>
       </c>
       <c r="AF4" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF5" s="2" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4889,16 +5064,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="21" width="9" style="2"/>
+    <col min="1" max="1" width="36.25" style="2" customWidth="1"/>
+    <col min="2" max="21" width="9" style="2"/>
     <col min="22" max="22" width="18.5" style="2" customWidth="1"/>
     <col min="23" max="23" width="15.75" style="2" customWidth="1"/>
     <col min="24" max="24" width="14.9166666666667" style="2" customWidth="1"/>
@@ -4976,7 +5152,7 @@
         <v>18</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>19</v>
@@ -5005,7 +5181,7 @@
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>209</v>
@@ -5056,7 +5232,7 @@
         <v>216</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>29</v>
@@ -5074,7 +5250,7 @@
         <v>36</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>42</v>
@@ -5089,7 +5265,7 @@
         <v>97</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>219</v>
@@ -5100,7 +5276,7 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>209</v>
@@ -5151,7 +5327,7 @@
         <v>216</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>53</v>
@@ -5183,7 +5359,7 @@
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>209</v>
@@ -5234,7 +5410,7 @@
         <v>216</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>53</v>
@@ -5316,7 +5492,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5403,7 +5579,7 @@
         <v>8</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>10</v>
@@ -5426,7 +5602,7 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>209</v>
@@ -5477,7 +5653,7 @@
         <v>216</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>29</v>
@@ -5501,7 +5677,7 @@
         <v>97</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>219</v>
@@ -5512,7 +5688,7 @@
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>209</v>
@@ -5563,7 +5739,7 @@
         <v>216</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>53</v>
@@ -5586,7 +5762,7 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>209</v>
@@ -5635,7 +5811,7 @@
         <v>216</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>53</v>
@@ -5702,14 +5878,14 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AI3"/>
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AF5" sqref="AF5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="30.3333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.4166666666667" style="2" customWidth="1"/>
@@ -5797,22 +5973,22 @@
         <v>22</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>10</v>
@@ -5835,7 +6011,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>209</v>
@@ -5886,7 +6062,7 @@
         <v>216</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>29</v>
@@ -5901,10 +6077,10 @@
         <v>39</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>32</v>
@@ -5916,7 +6092,7 @@
         <v>97</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>219</v>
@@ -5927,10 +6103,10 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>210</v>
@@ -5978,7 +6154,7 @@
         <v>216</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>53</v>
@@ -5993,10 +6169,10 @@
         <v>39</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>32</v>
@@ -6011,6 +6187,95 @@
         <v>218</v>
       </c>
       <c r="AI3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI4" s="2" t="s">
         <v>29</v>
       </c>
     </row>

--- a/SDDI-Metadata.xlsx
+++ b/SDDI-Metadata.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ckan-docker-CKANofficial\sddi-import-export-excel-tool\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6284F2-A86B-4353-9173-EFBDA84A6AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12200" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Mapping" sheetId="1" r:id="rId1"/>
@@ -24,6 +30,8 @@
     <definedName name="Data_Standard">'Data Mapping'!$Q$1:$Q$8</definedName>
     <definedName name="Data_Status">'Data Mapping'!$O$1:$O$5</definedName>
     <definedName name="Data_Type">'Data Mapping'!$P$1:$P$9</definedName>
+    <definedName name="Digital_Twin_Capabilities">'Data Mapping'!$AI$1:$AI$14</definedName>
+    <definedName name="Digital_Twin_Level">'Data Mapping'!$AH$1:$AH$6</definedName>
     <definedName name="Dynamic_State">'Data Mapping'!$S$1:$S$4</definedName>
     <definedName name="Hauptkategorien">'Data Mapping'!$A$1:$A$10</definedName>
     <definedName name="HOAI_Service_Phase">'Data Mapping'!$K$1:$K$10</definedName>
@@ -43,24 +51,11 @@
     <definedName name="Zugriffsrechte">'Data Mapping'!$I$1:$I$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="306">
   <si>
     <t>Hauptkategorien</t>
   </si>
@@ -194,6 +189,12 @@
     <t>residential</t>
   </si>
   <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>visualization</t>
+  </si>
+  <si>
     <t>Methode</t>
   </si>
   <si>
@@ -257,6 +258,12 @@
     <t>commercial</t>
   </si>
   <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>monitoring</t>
+  </si>
+  <si>
     <t>Gerät / Ding</t>
   </si>
   <si>
@@ -308,6 +315,12 @@
     <t>industrial</t>
   </si>
   <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>simulation</t>
+  </si>
+  <si>
     <t>Datensatz und Dokumente</t>
   </si>
   <si>
@@ -353,6 +366,12 @@
     <t>institutional</t>
   </si>
   <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>prediction</t>
+  </si>
+  <si>
     <t>Digitaler Zwilling</t>
   </si>
   <si>
@@ -389,6 +408,12 @@
     <t>agricultural</t>
   </si>
   <si>
+    <t>enterprise</t>
+  </si>
+  <si>
+    <t>optimization</t>
+  </si>
+  <si>
     <t>Geoobjekt</t>
   </si>
   <si>
@@ -425,6 +450,9 @@
     <t>mixed</t>
   </si>
   <si>
+    <t>control</t>
+  </si>
+  <si>
     <t>Online-Dienst</t>
   </si>
   <si>
@@ -449,6 +477,9 @@
     <t>temporary</t>
   </si>
   <si>
+    <t>maintenance</t>
+  </si>
+  <si>
     <t>Projekt</t>
   </si>
   <si>
@@ -470,6 +501,9 @@
     <t>special</t>
   </si>
   <si>
+    <t>training</t>
+  </si>
+  <si>
     <t>Software</t>
   </si>
   <si>
@@ -491,6 +525,9 @@
     <t>transport</t>
   </si>
   <si>
+    <t>compliance</t>
+  </si>
+  <si>
     <t>Gewerbe / Handwerk</t>
   </si>
   <si>
@@ -506,6 +543,9 @@
     <t>roads</t>
   </si>
   <si>
+    <t>energy_management</t>
+  </si>
+  <si>
     <t>Energie</t>
   </si>
   <si>
@@ -521,6 +561,9 @@
     <t>bridges</t>
   </si>
   <si>
+    <t>safety_monitoring</t>
+  </si>
+  <si>
     <t>Verwaltung</t>
   </si>
   <si>
@@ -536,6 +579,9 @@
     <t>railways</t>
   </si>
   <si>
+    <t>collaboration</t>
+  </si>
+  <si>
     <t>Stadtplanung</t>
   </si>
   <si>
@@ -647,8 +693,7 @@
     <t>E-Mail Maintainer</t>
   </si>
   <si>
-    <t xml:space="preserve">Phone Maintainer-</t>
+    <t>Phone Maintainer_x000D_</t>
   </si>
   <si>
     <t>Organization</t>
@@ -795,7 +840,10 @@
     <t>Simulation Model</t>
   </si>
   <si>
-    <t>Example Digital Twin 2</t>
+    <t>817 Digital Twin 1</t>
+  </si>
+  <si>
+    <t>cad</t>
   </si>
   <si>
     <t>Example Digital Twin 1</t>
@@ -907,19 +955,35 @@
   </si>
   <si>
     <t>Example Software new test 84</t>
+  </si>
+  <si>
+    <t>prediction</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>optimization</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital Twin Capabilities</t>
+  </si>
+  <si>
+    <t>Digital Twin Capabilities</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital Twin Level</t>
+  </si>
+  <si>
+    <t>Digital Twin Level</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -931,7 +995,6 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -939,154 +1002,27 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1105,188 +1041,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1309,321 +1065,44 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
-      <color rgb="001C981C"/>
+      <color rgb="FF1C981C"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1945,39 +1424,42 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF33"/>
+  <dimension ref="A1:AI33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AB4"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AH10" sqref="AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.75" customWidth="1"/>
-    <col min="2" max="4" width="25.1666666666667" customWidth="1"/>
+    <col min="2" max="4" width="25.1640625" customWidth="1"/>
     <col min="5" max="6" width="56" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="37.5833333333333" customWidth="1"/>
-    <col min="10" max="10" width="21.1666666666667" customWidth="1"/>
-    <col min="11" max="11" width="25.1666666666667" customWidth="1"/>
-    <col min="12" max="18" width="21.1666666666667" customWidth="1"/>
-    <col min="19" max="19" width="16.5833333333333" customWidth="1"/>
-    <col min="20" max="20" width="22.0833333333333" customWidth="1"/>
-    <col min="21" max="21" width="19.1666666666667" customWidth="1"/>
-    <col min="22" max="22" width="13.8333333333333" customWidth="1"/>
+    <col min="9" max="9" width="37.58203125" customWidth="1"/>
+    <col min="10" max="10" width="21.1640625" customWidth="1"/>
+    <col min="11" max="11" width="25.1640625" customWidth="1"/>
+    <col min="12" max="18" width="21.1640625" customWidth="1"/>
+    <col min="19" max="19" width="16.58203125" customWidth="1"/>
+    <col min="20" max="20" width="22.08203125" customWidth="1"/>
+    <col min="21" max="21" width="19.1640625" customWidth="1"/>
+    <col min="22" max="22" width="13.83203125" customWidth="1"/>
     <col min="23" max="23" width="15" customWidth="1"/>
     <col min="25" max="25" width="19" customWidth="1"/>
-    <col min="26" max="29" width="14.5833333333333" customWidth="1"/>
-    <col min="30" max="30" width="16.5833333333333" customWidth="1"/>
+    <col min="26" max="29" width="14.58203125" customWidth="1"/>
+    <col min="30" max="30" width="16.58203125" customWidth="1"/>
+    <col min="34" max="34" width="27.08203125" customWidth="1"/>
+    <col min="35" max="35" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:35" ht="15.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2052,8 +1534,14 @@
       <c r="AF1" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:32">
+      <c r="AH1" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2123,528 +1611,582 @@
       <c r="AF2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:32">
+      <c r="AH2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="S3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="T3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF3" t="s">
         <v>62</v>
       </c>
-      <c r="AB3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32">
+      <c r="AH3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="T4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Y4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Z4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AB4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AD4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AF4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>82</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
       <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O5" t="s">
+        <v>95</v>
+      </c>
+      <c r="P5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>97</v>
+      </c>
+      <c r="T5" t="s">
+        <v>98</v>
+      </c>
+      <c r="U5" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" t="s">
+        <v>110</v>
+      </c>
+      <c r="P6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>112</v>
+      </c>
+      <c r="T6" t="s">
+        <v>113</v>
+      </c>
+      <c r="U6" t="s">
         <v>82</v>
       </c>
-      <c r="C5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" t="s">
-        <v>88</v>
-      </c>
-      <c r="O5" t="s">
-        <v>89</v>
-      </c>
-      <c r="P5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>91</v>
-      </c>
-      <c r="T5" t="s">
-        <v>92</v>
-      </c>
-      <c r="U5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
-      <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" t="s">
-        <v>100</v>
-      </c>
-      <c r="J6" t="s">
-        <v>101</v>
-      </c>
-      <c r="K6" t="s">
-        <v>102</v>
-      </c>
-      <c r="P6" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>104</v>
-      </c>
-      <c r="T6" t="s">
-        <v>105</v>
-      </c>
-      <c r="U6" t="s">
-        <v>78</v>
-      </c>
       <c r="Y6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="AD6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>116</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI6" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="H7" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="J7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="Q7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="T7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="Y7" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Z7" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="AD7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>130</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="H8" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="K8" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="P8" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="Q8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="T8" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="Y8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AD8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>139</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H9" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="K9" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="T9" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="AD9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>147</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="H10" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="K10" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="T10" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="AD10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="3:30">
+        <v>155</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35">
       <c r="C11" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E11" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="H11" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="T11" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="AD11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="3:30">
+        <v>161</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35">
       <c r="C12" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E12" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="H12" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="T12" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="AD12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="3:30">
+        <v>167</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35">
       <c r="C13" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="E13" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="H13" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="T13" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="AD13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="3:30">
+        <v>173</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35">
       <c r="C14" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="H14" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="T14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AD14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="3:30">
+        <v>178</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35">
       <c r="C15" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="AD15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="3:30">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35">
       <c r="C16" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="E16" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="AD16" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="5:30">
       <c r="E17" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AD17" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="5:30">
       <c r="E18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="AD18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="5:30">
       <c r="E19" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="AD19" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="30:30">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="5:30">
       <c r="AD20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="30:30">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="5:30">
       <c r="AD21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="30:30">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="5:30">
       <c r="AD22" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="30:30">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="5:30">
       <c r="AD23" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="30:30">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="5:30">
       <c r="AD24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="30:30">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="5:30">
       <c r="AD25" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="26" spans="30:30">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="5:30">
       <c r="AD26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="30:30">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="5:30">
       <c r="AD27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" spans="30:30">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="5:30">
       <c r="AD28" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="29" spans="30:30">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="5:30">
       <c r="AD29" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="30" spans="30:30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="5:30">
       <c r="AD30" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" spans="30:30">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="5:30">
       <c r="AD31" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="30:30">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="5:30">
       <c r="AD32" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="30:30">
       <c r="AD33" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="K18:K19 I3 H2:I2 A5:A6 H1 H4:I19" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -2652,103 +2194,102 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="V1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="51.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="31.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.5833333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.58203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.6666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="19.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.8333333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="20.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="27.9166666666667" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16.6666666666667" style="2" customWidth="1"/>
+    <col min="11" max="11" width="27.9140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="2" customWidth="1"/>
     <col min="13" max="15" width="9" style="2"/>
-    <col min="16" max="16" width="25.8333333333333" style="2" customWidth="1"/>
-    <col min="17" max="17" width="25.3333333333333" style="2" customWidth="1"/>
-    <col min="18" max="18" width="19.0833333333333" style="2" customWidth="1"/>
-    <col min="19" max="19" width="26.4166666666667" style="2" customWidth="1"/>
-    <col min="20" max="20" width="17.9166666666667" style="2" customWidth="1"/>
+    <col min="16" max="16" width="25.83203125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="25.33203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="19.08203125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="26.4140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="17.9140625" style="2" customWidth="1"/>
     <col min="21" max="21" width="23.5" style="2" customWidth="1"/>
-    <col min="22" max="22" width="18.4166666666667" style="2" customWidth="1"/>
-    <col min="23" max="23" width="18.1666666666667" style="2" customWidth="1"/>
+    <col min="22" max="22" width="18.4140625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="18.1640625" style="2" customWidth="1"/>
     <col min="24" max="24" width="21.5" style="2" customWidth="1"/>
     <col min="25" max="26" width="24.75" style="2" customWidth="1"/>
-    <col min="27" max="27" width="17.6666666666667" style="2" customWidth="1"/>
+    <col min="27" max="27" width="17.6640625" style="2" customWidth="1"/>
     <col min="28" max="28" width="21.75" style="2" customWidth="1"/>
     <col min="29" max="29" width="18.75" style="2" customWidth="1"/>
     <col min="30" max="30" width="9" style="2"/>
-    <col min="31" max="31" width="21.0833333333333" style="2" customWidth="1"/>
+    <col min="31" max="31" width="21.08203125" style="2" customWidth="1"/>
     <col min="32" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:31">
+    <row r="1" spans="1:31" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>9</v>
@@ -2772,84 +2313,84 @@
         <v>10</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" ht="63" customHeight="1" spans="1:31">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="63" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>34</v>
@@ -2861,90 +2402,90 @@
         <v>32</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1" spans="1:31">
+    <row r="3" spans="1:31" ht="60" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>32</v>
@@ -2953,75 +2494,75 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1" spans="1:31">
+    <row r="4" spans="1:31" ht="60" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="S4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>32</v>
@@ -3030,75 +2571,75 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1" spans="1:31">
+    <row r="5" spans="1:31" ht="60" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="S5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T5" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="Y5" s="2" t="s">
         <v>32</v>
@@ -3107,75 +2648,75 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1" spans="1:31">
+    <row r="6" spans="1:31" ht="60" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="B6" s="2">
         <v>84848</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="S6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T6" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="Y6" s="2" t="s">
         <v>32</v>
@@ -3184,75 +2725,75 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1" spans="1:31">
+    <row r="7" spans="1:31" ht="60" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="S7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T7" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>32</v>
@@ -3262,168 +2803,182 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="15">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1 L7 L3:L6 L8:L1048576">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1 L3:L1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Hauptkategorien</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
-      <formula1>'Data Mapping'!$A$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 D1:D6 D8:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>Lizenzen</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7 J1:J6 J8:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>Role</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7 K1:K6 K8:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>Organisationen</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7 M1:M6 M8:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576" xr:uid="{00000000-0002-0000-0100-000005000000}">
       <formula1>Themen</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7 N1:N6 N8:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576" xr:uid="{00000000-0002-0000-0100-000006000000}">
       <formula1>Language</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S7 S1:S6 S8:S1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576" xr:uid="{00000000-0002-0000-0100-000007000000}">
       <formula1>Sichtbarkeit</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7 T1:T6 T8:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576" xr:uid="{00000000-0002-0000-0100-000008000000}">
       <formula1>Life_Cycle_Phase</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U7 U1:U6 U8:U1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576" xr:uid="{00000000-0002-0000-0100-000009000000}">
       <formula1>HOAI_Service_Phase</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V7 V1:V6 V8:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576" xr:uid="{00000000-0002-0000-0100-00000A000000}">
       <formula1>Data_Status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W7 W1:W6 W8:W1048576">
-      <formula1>'Data Mapping'!$P:$P</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AE1048576" xr:uid="{00000000-0002-0000-0100-00000D000000}">
+      <formula1>Zugriffsrechte</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X7 X1:X6 X8:X1048576">
-      <formula1>'Data Mapping'!$Q:$Q</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y7:Z7 Y1:Z6 Y8:Z1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1:Z1048576" xr:uid="{00000000-0002-0000-0100-00000E000000}">
       <formula1>Privacy_Policy</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE7 AE1:AE6 AE8:AE1048576">
-      <formula1>Zugriffsrechte</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" display="max-mustermann@gmail.com"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="A1:C3 AA2:AD3 O2:Q3 O1:R1 E1:I3 AA1 AC1:AD1" numberStoredAsText="1"/>
   </ignoredErrors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>L2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$P:$P</xm:f>
+          </x14:formula1>
+          <xm:sqref>W1:W1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$Q:$Q</xm:f>
+          </x14:formula1>
+          <xm:sqref>X1:X1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AL5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="Y1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="$A5:$XFD5"/>
+      <selection pane="bottomLeft" activeCell="AI12" sqref="AI12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="22" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.0833333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.4166666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.08203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.4140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.8333333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.1666666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.0833333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.0833333333333" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.6666666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.08203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.08203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="2" customWidth="1"/>
     <col min="11" max="11" width="40.25" style="2" customWidth="1"/>
     <col min="12" max="12" width="20" style="2" customWidth="1"/>
-    <col min="13" max="13" width="23.4166666666667" style="2" customWidth="1"/>
-    <col min="14" max="14" width="15.8333333333333" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23.4140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" style="2" customWidth="1"/>
     <col min="15" max="15" width="9" style="2"/>
-    <col min="16" max="16" width="25.3333333333333" style="2" customWidth="1"/>
-    <col min="17" max="17" width="26.4166666666667" style="2" customWidth="1"/>
+    <col min="16" max="16" width="25.33203125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="26.4140625" style="2" customWidth="1"/>
     <col min="18" max="18" width="53.25" style="2" customWidth="1"/>
-    <col min="19" max="19" width="19.4166666666667" style="2" customWidth="1"/>
-    <col min="20" max="20" width="18.6666666666667" style="2" customWidth="1"/>
-    <col min="21" max="21" width="19.8333333333333" style="2" customWidth="1"/>
-    <col min="22" max="23" width="13.6666666666667" style="2" customWidth="1"/>
+    <col min="19" max="19" width="19.4140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="18.6640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="19.83203125" style="2" customWidth="1"/>
+    <col min="22" max="23" width="13.6640625" style="2" customWidth="1"/>
     <col min="24" max="24" width="22.5" style="2" customWidth="1"/>
-    <col min="25" max="25" width="13.6666666666667" style="2" customWidth="1"/>
+    <col min="25" max="25" width="13.6640625" style="2" customWidth="1"/>
     <col min="26" max="26" width="23.75" style="2" customWidth="1"/>
     <col min="27" max="27" width="19.75" style="2" customWidth="1"/>
     <col min="28" max="28" width="22.5" style="2" customWidth="1"/>
     <col min="29" max="30" width="20.5" style="2" customWidth="1"/>
     <col min="31" max="31" width="19" style="2" customWidth="1"/>
-    <col min="32" max="33" width="26.3333333333333" style="2" customWidth="1"/>
+    <col min="32" max="33" width="26.33203125" style="2" customWidth="1"/>
     <col min="34" max="35" width="9" style="2"/>
     <col min="36" max="36" width="18.75" style="2" customWidth="1"/>
     <col min="37" max="37" width="9" style="2"/>
-    <col min="38" max="38" width="17.5833333333333" style="2" customWidth="1"/>
+    <col min="38" max="38" width="17.58203125" style="2" customWidth="1"/>
     <col min="39" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:38">
+    <row r="1" spans="1:38" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>9</v>
@@ -3435,16 +2990,16 @@
         <v>8</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>14</v>
@@ -3453,99 +3008,99 @@
         <v>15</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" ht="44" customHeight="1" spans="1:38">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="44" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>36</v>
@@ -3554,7 +3109,7 @@
         <v>37</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>38</v>
@@ -3563,93 +3118,93 @@
         <v>32</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" ht="46.5" customHeight="1" spans="1:38">
+    <row r="3" spans="1:38" ht="46.5" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="U3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AF3" s="2" t="s">
         <v>32</v>
@@ -3660,67 +3215,67 @@
     </row>
     <row r="4" spans="1:38">
       <c r="A4" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="AF4" s="2" t="s">
         <v>32</v>
@@ -3731,67 +3286,67 @@
     </row>
     <row r="5" spans="1:38">
       <c r="A5" s="2" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="AF5" s="2" t="s">
         <v>32</v>
@@ -3801,144 +3356,189 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
-      <formula1>'Data Mapping'!$H:$H</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
-      <formula1>'Data Mapping'!$F:$F</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
-      <formula1>'Data Mapping'!$E:$E</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
-      <formula1>'Data Mapping'!$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
-      <formula1>'Data Mapping'!$C:$C</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N$1:N$1048576">
-      <formula1>'Data Mapping'!$D:$D</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S$1:S$1048576">
-      <formula1>'Data Mapping'!$L:$L</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T$1:T$1048576">
-      <formula1>'Data Mapping'!$J:$J</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U$1:U$1048576">
-      <formula1>'Data Mapping'!$K:$K</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z$1:Z$1048576">
-      <formula1>'Data Mapping'!$S:$S</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA$1:AA$1048576">
-      <formula1>'Data Mapping'!$T:$T</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD$1:AD$1048576">
-      <formula1>'Data Mapping'!$U:$U</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL$1:AL$1048576">
-      <formula1>'Data Mapping'!$I:$I</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF$1:AG$1048576">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF1:AG1048576" xr:uid="{00000000-0002-0000-0200-00000D000000}">
       <formula1>Privacy_Policy</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="13">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$H:$H</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$F:$F</xm:f>
+          </x14:formula1>
+          <xm:sqref>J1:J1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$E:$E</xm:f>
+          </x14:formula1>
+          <xm:sqref>K1:K1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>L1:L1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$C:$C</xm:f>
+          </x14:formula1>
+          <xm:sqref>M1:M1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000005000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$D:$D</xm:f>
+          </x14:formula1>
+          <xm:sqref>N1:N1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000006000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$L:$L</xm:f>
+          </x14:formula1>
+          <xm:sqref>S1:S1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000007000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$J:$J</xm:f>
+          </x14:formula1>
+          <xm:sqref>T1:T1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000008000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$K:$K</xm:f>
+          </x14:formula1>
+          <xm:sqref>U1:U1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000009000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$S:$S</xm:f>
+          </x14:formula1>
+          <xm:sqref>Z1:Z1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-00000A000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$T:$T</xm:f>
+          </x14:formula1>
+          <xm:sqref>AA1:AA1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-00000B000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$U:$U</xm:f>
+          </x14:formula1>
+          <xm:sqref>AD1:AD1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-00000C000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$I:$I</xm:f>
+          </x14:formula1>
+          <xm:sqref>AL1:AL1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="U4" sqref="U4"/>
+      <selection pane="bottomLeft" activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.0833333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.08203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="22" style="2" customWidth="1"/>
     <col min="5" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="14.5833333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.58203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="33.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="24.1666666666667" style="2" customWidth="1"/>
+    <col min="12" max="12" width="24.1640625" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
     <col min="14" max="17" width="9" style="2"/>
-    <col min="18" max="18" width="62.1666666666667" style="2" customWidth="1"/>
-    <col min="19" max="19" width="17.3333333333333" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.1640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" style="2" customWidth="1"/>
     <col min="20" max="20" width="9" style="2"/>
-    <col min="21" max="22" width="18.4166666666667" style="2" customWidth="1"/>
-    <col min="23" max="24" width="14.4166666666667" style="2" customWidth="1"/>
-    <col min="25" max="26" width="9" style="2"/>
-    <col min="27" max="27" width="18.75" style="2" customWidth="1"/>
-    <col min="28" max="28" width="9" style="2"/>
-    <col min="29" max="29" width="13" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="2"/>
+    <col min="21" max="23" width="18.4140625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="34.08203125" style="2" customWidth="1"/>
+    <col min="25" max="26" width="14.4140625" style="2" customWidth="1"/>
+    <col min="27" max="28" width="9" style="2"/>
+    <col min="29" max="29" width="18.75" style="2" customWidth="1"/>
+    <col min="30" max="30" width="9" style="2"/>
+    <col min="31" max="31" width="13" style="2" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:29">
+    <row r="1" spans="1:31" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>9</v>
@@ -3950,309 +3550,362 @@
         <v>8</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
+        <v>222</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" s="2" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="W2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AE2" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" s="2" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="U3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="W3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AC3" s="2" t="s">
-        <v>184</v>
+      <c r="AE3" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
-      <formula1>'Data Mapping'!$H:$H</formula1>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1 W2 W3:W1048576" xr:uid="{00000000-0002-0000-0300-000009000000}">
+      <formula1>Digital_Twin_Level</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
-      <formula1>'Data Mapping'!$F:$F</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X1048576" xr:uid="{00000000-0002-0000-0300-00000A000000}">
+      <formula1>Digital_Twin_Capabilities</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
-      <formula1>'Data Mapping'!$E:$E</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
-      <formula1>'Data Mapping'!$A$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
-      <formula1>'Data Mapping'!$C:$C</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N$1:N$1048576">
-      <formula1>'Data Mapping'!$D:$D</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S$1:S$1048576">
-      <formula1>'Data Mapping'!$L:$L</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T$1:T$1048576">
-      <formula1>'Data Mapping'!$J:$J</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U$1:U$1048576">
-      <formula1>'Data Mapping'!$K:$K</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1 Y2 Y3:Y4" xr:uid="{00000000-0002-0000-0300-00000B000000}">
       <formula1>Privacy_Policy</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC$1:AC$1048576">
-      <formula1>'Data Mapping'!$I:$I</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$H:$H</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1 D2 D3:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$F:$F</xm:f>
+          </x14:formula1>
+          <xm:sqref>J1 J2 J3:J1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$E:$E</xm:f>
+          </x14:formula1>
+          <xm:sqref>K1 K2 K3:K1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>L1 L2 L3:L1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000004000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$C:$C</xm:f>
+          </x14:formula1>
+          <xm:sqref>M1 M2 M3:M1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000005000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$D:$D</xm:f>
+          </x14:formula1>
+          <xm:sqref>N1 N2 N3:N1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000006000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$L:$L</xm:f>
+          </x14:formula1>
+          <xm:sqref>S1 S2 S3:S1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000007000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$J:$J</xm:f>
+          </x14:formula1>
+          <xm:sqref>T1 T2 T3:T1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000008000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$K:$K</xm:f>
+          </x14:formula1>
+          <xm:sqref>U1 U2 U3:U1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-00000C000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$I:$I</xm:f>
+          </x14:formula1>
+          <xm:sqref>AE1 AE2 AE3:AE1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="Z1" sqref="Z1:Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.5833333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.58203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.8333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" style="2" customWidth="1"/>
     <col min="5" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="21.4166666666667" style="2" customWidth="1"/>
-    <col min="11" max="11" width="35.6666666666667" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.8333333333333" style="2" customWidth="1"/>
-    <col min="13" max="13" width="19.8333333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.4140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="35.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="19.83203125" style="2" customWidth="1"/>
     <col min="14" max="17" width="9" style="2"/>
     <col min="18" max="18" width="53.25" style="2" customWidth="1"/>
-    <col min="19" max="19" width="13.0833333333333" style="2" customWidth="1"/>
+    <col min="19" max="19" width="13.08203125" style="2" customWidth="1"/>
     <col min="20" max="25" width="9" style="2"/>
-    <col min="26" max="26" width="25.8333333333333" style="2" customWidth="1"/>
+    <col min="26" max="26" width="25.83203125" style="2" customWidth="1"/>
     <col min="27" max="27" width="19" style="2" customWidth="1"/>
     <col min="28" max="29" width="9" style="2"/>
     <col min="30" max="30" width="18.75" style="2" customWidth="1"/>
     <col min="31" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:32">
+    <row r="1" spans="1:32" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>9</v>
@@ -4264,99 +3917,99 @@
         <v>8</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="2" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>36</v>
@@ -4368,16 +4021,16 @@
         <v>32</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>6</v>
@@ -4385,67 +4038,67 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="2" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="U3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>36</v>
@@ -4459,67 +4112,67 @@
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="2" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="S4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="U4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>36</v>
@@ -4535,125 +4188,164 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
-      <formula1>'Data Mapping'!$H:$H</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
-      <formula1>'Data Mapping'!$F:$F</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
-      <formula1>'Data Mapping'!$E:$E</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
-      <formula1>'Data Mapping'!$A$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
-      <formula1>'Data Mapping'!$C:$C</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N$1:N$1048576">
-      <formula1>'Data Mapping'!$D:$D</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S$1:S$1048576">
-      <formula1>'Data Mapping'!$L:$L</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T$1:T$1048576">
-      <formula1>'Data Mapping'!$J:$J</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U$1:U$1048576">
-      <formula1>'Data Mapping'!$K:$K</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W$1:W$1048576">
-      <formula1>'Data Mapping'!$S:$S</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF$1:AF$1048576">
-      <formula1>'Data Mapping'!$I:$I</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z$1:AA$1048576">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:AA1048576" xr:uid="{00000000-0002-0000-0400-00000B000000}">
       <formula1>Privacy_Policy</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="11">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$H:$H</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$F:$F</xm:f>
+          </x14:formula1>
+          <xm:sqref>J1:J1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000002000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$E:$E</xm:f>
+          </x14:formula1>
+          <xm:sqref>K1:K1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000003000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>L1:L1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$C:$C</xm:f>
+          </x14:formula1>
+          <xm:sqref>M1:M1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000005000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$D:$D</xm:f>
+          </x14:formula1>
+          <xm:sqref>N1:N1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000006000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$L:$L</xm:f>
+          </x14:formula1>
+          <xm:sqref>S1:S1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000007000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$J:$J</xm:f>
+          </x14:formula1>
+          <xm:sqref>T1:T1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000008000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$K:$K</xm:f>
+          </x14:formula1>
+          <xm:sqref>U1:U1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000009000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$S:$S</xm:f>
+          </x14:formula1>
+          <xm:sqref>W1:W1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-00000A000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$I:$I</xm:f>
+          </x14:formula1>
+          <xm:sqref>AF1:AF1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.1666666666667" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="2" customWidth="1"/>
     <col min="2" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="28.1666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" style="2" customWidth="1"/>
     <col min="5" max="21" width="9" style="2"/>
-    <col min="22" max="22" width="19.1666666666667" style="2" customWidth="1"/>
-    <col min="23" max="23" width="17.8333333333333" style="2" customWidth="1"/>
+    <col min="22" max="22" width="19.1640625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="17.83203125" style="2" customWidth="1"/>
     <col min="24" max="25" width="9" style="2"/>
-    <col min="26" max="26" width="23.8333333333333" style="2" customWidth="1"/>
+    <col min="26" max="26" width="23.83203125" style="2" customWidth="1"/>
     <col min="27" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:32">
+    <row r="1" spans="1:32" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>9</v>
@@ -4668,96 +4360,96 @@
         <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="2" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>39</v>
@@ -4766,93 +4458,93 @@
         <v>36</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="2" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="U3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>36</v>
@@ -4861,75 +4553,75 @@
         <v>32</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="2" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="S4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="U4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>36</v>
@@ -4938,75 +4630,75 @@
         <v>32</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="2" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="S5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="T5" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="U5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>36</v>
@@ -5015,129 +4707,168 @@
         <v>32</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
-      <formula1>'Data Mapping'!$H:$H</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
-      <formula1>'Data Mapping'!$F:$F</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
-      <formula1>'Data Mapping'!$E:$E</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
-      <formula1>'Data Mapping'!$A$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
-      <formula1>'Data Mapping'!$C:$C</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N$1:N$1048576">
-      <formula1>'Data Mapping'!$D:$D</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S$1:S$1048576">
-      <formula1>'Data Mapping'!$L:$L</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T$1:T$1048576">
-      <formula1>'Data Mapping'!$J:$J</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U$1:U$1048576">
-      <formula1>'Data Mapping'!$K:$K</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V$1:V$1048576">
-      <formula1>'Data Mapping'!$W:$W</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF$1:AF$1048576">
-      <formula1>'Data Mapping'!$I:$I</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z$1:AA$1048576">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:AA1048576" xr:uid="{00000000-0002-0000-0500-00000B000000}">
       <formula1>Privacy_Policy</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="11">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$H:$H</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$F:$F</xm:f>
+          </x14:formula1>
+          <xm:sqref>J1:J1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$E:$E</xm:f>
+          </x14:formula1>
+          <xm:sqref>K1:K1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000003000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>L1:L1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000004000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$C:$C</xm:f>
+          </x14:formula1>
+          <xm:sqref>M1:M1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000005000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$D:$D</xm:f>
+          </x14:formula1>
+          <xm:sqref>N1:N1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000006000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$L:$L</xm:f>
+          </x14:formula1>
+          <xm:sqref>S1:S1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000007000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$J:$J</xm:f>
+          </x14:formula1>
+          <xm:sqref>T1:T1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000008000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$K:$K</xm:f>
+          </x14:formula1>
+          <xm:sqref>U1:U1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000009000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$W:$W</xm:f>
+          </x14:formula1>
+          <xm:sqref>V1:V1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-00000A000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$I:$I</xm:f>
+          </x14:formula1>
+          <xm:sqref>AF1:AF1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.25" style="2" customWidth="1"/>
     <col min="2" max="21" width="9" style="2"/>
     <col min="22" max="22" width="18.5" style="2" customWidth="1"/>
     <col min="23" max="23" width="15.75" style="2" customWidth="1"/>
-    <col min="24" max="24" width="14.9166666666667" style="2" customWidth="1"/>
+    <col min="24" max="24" width="14.9140625" style="2" customWidth="1"/>
     <col min="25" max="25" width="9" style="2"/>
-    <col min="26" max="26" width="26.3333333333333" style="2" customWidth="1"/>
+    <col min="26" max="26" width="26.33203125" style="2" customWidth="1"/>
     <col min="27" max="27" width="12.75" style="2" customWidth="1"/>
     <col min="28" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:32">
+    <row r="1" spans="1:32" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>9</v>
@@ -5152,7 +4883,7 @@
         <v>18</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>19</v>
@@ -5164,84 +4895,84 @@
         <v>10</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>40</v>
@@ -5250,7 +4981,7 @@
         <v>36</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>42</v>
@@ -5259,16 +4990,16 @@
         <v>32</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>29</v>
@@ -5276,79 +5007,79 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="2" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="U3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>32</v>
@@ -5359,79 +5090,79 @@
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="2" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="M4" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="S4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="U4" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>32</v>
@@ -5441,57 +5172,99 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
-      <formula1>'Data Mapping'!$H:$H</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
-      <formula1>'Data Mapping'!$F:$F</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
-      <formula1>'Data Mapping'!$E:$E</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
-      <formula1>'Data Mapping'!$A$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
-      <formula1>'Data Mapping'!$C:$C</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N$1:N$1048576">
-      <formula1>'Data Mapping'!$D:$D</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S$1:S$1048576">
-      <formula1>'Data Mapping'!$L:$L</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T$1:T$1048576">
-      <formula1>'Data Mapping'!$J:$J</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U$1:U$1048576">
-      <formula1>'Data Mapping'!$K:$K</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V$1:V$1048576">
-      <formula1>'Data Mapping'!$Y:$Y</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X$1:X$1048576">
-      <formula1>'Data Mapping'!$Z:$Z</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y$1:Y$1048576">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1:Y1048576" xr:uid="{00000000-0002-0000-0600-00000B000000}">
       <formula1>Service_Format</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF$1:AF$1048576">
-      <formula1>'Data Mapping'!$I:$I</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z$1:AA$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:AA1048576" xr:uid="{00000000-0002-0000-0600-00000D000000}">
       <formula1>Privacy_Policy</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="12">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000000000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$H:$H</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000001000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$F:$F</xm:f>
+          </x14:formula1>
+          <xm:sqref>J1:J1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000002000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$E:$E</xm:f>
+          </x14:formula1>
+          <xm:sqref>K1:K1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000003000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$A$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>L1:L1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000004000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$C:$C</xm:f>
+          </x14:formula1>
+          <xm:sqref>M1:M1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000005000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$D:$D</xm:f>
+          </x14:formula1>
+          <xm:sqref>N1:N1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000006000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$L:$L</xm:f>
+          </x14:formula1>
+          <xm:sqref>S1:S1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000007000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$J:$J</xm:f>
+          </x14:formula1>
+          <xm:sqref>T1:T1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000008000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$K:$K</xm:f>
+          </x14:formula1>
+          <xm:sqref>U1:U1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000009000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$Y:$Y</xm:f>
+          </x14:formula1>
+          <xm:sqref>V1:V1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-00000A000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$Z:$Z</xm:f>
+          </x14:formula1>
+          <xm:sqref>X1:X1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-00000C000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$I:$I</xm:f>
+          </x14:formula1>
+          <xm:sqref>AF1:AF1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AC4"/>
   <sheetViews>
@@ -5499,75 +5272,75 @@
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="25.1666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="2" customWidth="1"/>
     <col min="5" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="15.1666666666667" style="2" customWidth="1"/>
-    <col min="11" max="11" width="25.3333333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" style="2" customWidth="1"/>
     <col min="12" max="15" width="9" style="2"/>
-    <col min="16" max="16" width="19.0833333333333" style="2" customWidth="1"/>
+    <col min="16" max="16" width="19.08203125" style="2" customWidth="1"/>
     <col min="17" max="21" width="9" style="2"/>
-    <col min="22" max="22" width="25.5833333333333" style="2" customWidth="1"/>
-    <col min="23" max="24" width="26.3333333333333" style="2" customWidth="1"/>
+    <col min="22" max="22" width="25.58203125" style="2" customWidth="1"/>
+    <col min="23" max="24" width="26.33203125" style="2" customWidth="1"/>
     <col min="25" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="26" customHeight="1" spans="1:29">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="26" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>9</v>
@@ -5579,90 +5352,90 @@
         <v>8</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="2" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>43</v>
@@ -5671,16 +5444,16 @@
         <v>32</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>29</v>
@@ -5688,70 +5461,70 @@
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="2" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="U3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>32</v>
@@ -5762,68 +5535,68 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="2" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="S4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="U4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>32</v>
@@ -5833,132 +5606,171 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
-      <formula1>'Data Mapping'!$H:$H</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
-      <formula1>'Data Mapping'!$F:$F</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
-      <formula1>'Data Mapping'!$E:$E</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
-      <formula1>'Data Mapping'!$A$9</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
-      <formula1>'Data Mapping'!$C:$C</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N$1:N$1048576">
-      <formula1>'Data Mapping'!$D:$D</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S$1:S$1048576">
-      <formula1>'Data Mapping'!$L:$L</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T$1:T$1048576">
-      <formula1>'Data Mapping'!$J:$J</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U$1:U$1048576">
-      <formula1>'Data Mapping'!$K:$K</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V$1:V$1048576">
-      <formula1>'Data Mapping'!$AD:$AD</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC$1:AC$1048576">
-      <formula1>'Data Mapping'!$I:$I</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W$1:X$1048576">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:X1048576" xr:uid="{00000000-0002-0000-0700-00000B000000}">
       <formula1>Privacy_Policy</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="11">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000000000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$H:$H</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000001000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$F:$F</xm:f>
+          </x14:formula1>
+          <xm:sqref>J1:J1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000002000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$E:$E</xm:f>
+          </x14:formula1>
+          <xm:sqref>K1:K1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000003000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>L1:L1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000004000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$C:$C</xm:f>
+          </x14:formula1>
+          <xm:sqref>M1:M1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000005000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$D:$D</xm:f>
+          </x14:formula1>
+          <xm:sqref>N1:N1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000006000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$L:$L</xm:f>
+          </x14:formula1>
+          <xm:sqref>S1:S1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000007000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$J:$J</xm:f>
+          </x14:formula1>
+          <xm:sqref>T1:T1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000008000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$K:$K</xm:f>
+          </x14:formula1>
+          <xm:sqref>U1:U1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000009000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$AD:$AD</xm:f>
+          </x14:formula1>
+          <xm:sqref>V1:V1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-00000A000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$I:$I</xm:f>
+          </x14:formula1>
+          <xm:sqref>AC1:AC1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AI4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.3333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.4166666666667" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.4140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.0833333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.08203125" style="2" customWidth="1"/>
     <col min="5" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="15.1666666666667" style="2" customWidth="1"/>
-    <col min="11" max="11" width="25.3333333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" style="2" customWidth="1"/>
     <col min="12" max="18" width="9" style="2"/>
     <col min="19" max="19" width="18.5" style="2" customWidth="1"/>
     <col min="20" max="22" width="9" style="2"/>
-    <col min="23" max="23" width="16.5833333333333" style="2" customWidth="1"/>
+    <col min="23" max="23" width="16.58203125" style="2" customWidth="1"/>
     <col min="24" max="28" width="9" style="2"/>
-    <col min="29" max="29" width="26.3333333333333" style="2" customWidth="1"/>
+    <col min="29" max="29" width="26.33203125" style="2" customWidth="1"/>
     <col min="30" max="30" width="7.25" style="2" customWidth="1"/>
-    <col min="31" max="31" width="19.8333333333333" style="2" customWidth="1"/>
+    <col min="31" max="31" width="19.83203125" style="2" customWidth="1"/>
     <col min="32" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="26" customHeight="1" spans="1:35">
+    <row r="1" spans="1:35" s="1" customFormat="1" ht="26" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>9</v>
@@ -5973,129 +5785,129 @@
         <v>22</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="2" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="AI2" s="2" t="s">
         <v>29</v>
@@ -6103,88 +5915,88 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="2" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="U3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="AI3" s="2" t="s">
         <v>29</v>
@@ -6192,133 +6004,169 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="2" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="S4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="U4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="AC4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="AI4" s="2" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
-      <formula1>'Data Mapping'!$H:$H</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
-      <formula1>'Data Mapping'!$F:$F</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
-      <formula1>'Data Mapping'!$E:$E</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
-      <formula1>'Data Mapping'!$A$10</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
-      <formula1>'Data Mapping'!$C:$C</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N$1:N$1048576">
-      <formula1>'Data Mapping'!$D:$D</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S$1:S$1048576">
-      <formula1>'Data Mapping'!$L:$L</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T$1:T$1048576">
-      <formula1>'Data Mapping'!$J:$J</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U$1:U$1048576">
-      <formula1>'Data Mapping'!$K:$K</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V$1:V$1048576">
-      <formula1>'Data Mapping'!$AF:$AF</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI$1:AI$1048576">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI1:AI1048576" xr:uid="{00000000-0002-0000-0800-00000A000000}">
       <formula1>Zugriffsrechte</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC$1:AD$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AD1048576" xr:uid="{00000000-0002-0000-0800-00000B000000}">
       <formula1>Privacy_Policy</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000000000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$H:$H</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000001000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$F:$F</xm:f>
+          </x14:formula1>
+          <xm:sqref>J1:J1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000002000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$E:$E</xm:f>
+          </x14:formula1>
+          <xm:sqref>K1:K1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000003000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$A$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>L1:L1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000004000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$C:$C</xm:f>
+          </x14:formula1>
+          <xm:sqref>M1:M1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000005000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$D:$D</xm:f>
+          </x14:formula1>
+          <xm:sqref>N1:N1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000006000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$L:$L</xm:f>
+          </x14:formula1>
+          <xm:sqref>S1:S1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000007000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$J:$J</xm:f>
+          </x14:formula1>
+          <xm:sqref>T1:T1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000008000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$K:$K</xm:f>
+          </x14:formula1>
+          <xm:sqref>U1:U1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000009000000}">
+          <x14:formula1>
+            <xm:f>'Data Mapping'!$AF:$AF</xm:f>
+          </x14:formula1>
+          <xm:sqref>V1:V1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>